--- a/Market Value_Sadia_&_Muthu.xlsx
+++ b/Market Value_Sadia_&_Muthu.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akofman\Documents\GitHub\TurningPoints\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Medical Care</t>
   </si>
@@ -191,18 +196,30 @@
   <si>
     <t>Muthu Kumaran 
 Sadia Kauser</t>
+  </si>
+  <si>
+    <t>Range of costs w/o insurance (from http://health.costhelper.com updated 2012)</t>
+  </si>
+  <si>
+    <t>$20-$80</t>
+  </si>
+  <si>
+    <t>$150-$1000</t>
+  </si>
+  <si>
+    <t>$40-$110</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,18 +379,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -401,6 +418,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -675,600 +713,654 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="85.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="85.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="31.5">
+    <row r="1" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="17.25">
+      <c r="C1" s="25"/>
+    </row>
+    <row r="3" spans="2:7" ht="69" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3">
         <v>49</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>14</v>
       </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E11" si="0">D6*C6</f>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F11" si="0">E6*D6</f>
         <v>686</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3">
         <v>150</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>12</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="28"/>
+      <c r="D8" s="3">
         <v>20</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>9</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3">
         <v>85</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>680</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="28"/>
+      <c r="D10" s="3">
         <v>120</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="29"/>
+      <c r="D11" s="3">
         <v>113</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>452</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="C12" s="29"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="4">
-        <f t="shared" ref="E13:E22" si="1">D13*C13</f>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:F22" si="1">E13*D13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="28"/>
+      <c r="D14" s="6">
         <v>25</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>24</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="28"/>
+      <c r="D15" s="6">
         <v>42</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>23</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <f t="shared" si="1"/>
         <v>966</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="28"/>
+      <c r="D16" s="6">
         <v>12</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>21</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <f t="shared" si="1"/>
         <v>252</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="28"/>
+      <c r="D17" s="6">
         <v>20</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>14</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="28"/>
+      <c r="D18" s="6">
         <v>85</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>16</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <f t="shared" si="1"/>
         <v>1360</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="28"/>
+      <c r="D19" s="6">
         <v>90</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>14</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="1"/>
         <v>1260</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="28"/>
+      <c r="D20" s="6">
         <v>50</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>15</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="30"/>
+      <c r="D21" s="6">
         <v>55</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>9</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <f t="shared" si="1"/>
         <v>495</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="28"/>
+      <c r="D22" s="6">
         <v>70</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>21</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
         <v>1470</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="28"/>
+      <c r="D23" s="6">
         <v>60</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>14</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="28"/>
+      <c r="D24" s="6">
         <v>640</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>15</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="28"/>
+      <c r="D25" s="6">
         <v>640</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>19</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="C26" s="28"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="28"/>
+      <c r="D27" s="8">
         <v>25</v>
       </c>
-      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="28"/>
+      <c r="D30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="28"/>
+      <c r="D31" s="4">
         <v>57</v>
       </c>
-      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="28"/>
+      <c r="D33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="28"/>
+      <c r="D35" s="6">
         <v>138.38999999999999</v>
       </c>
-      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>5</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="31"/>
+      <c r="D38" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
-      <c r="C40" s="17"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="20">
         <v>6</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="34"/>
+      <c r="D41" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="32"/>
+      <c r="D42" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="19"/>
-      <c r="C43" s="17"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="E43" s="17"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="20">
         <v>8</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="34"/>
+      <c r="D44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" spans="2:6">
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="2:6">
+      <c r="E45" s="17"/>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="20">
         <v>10</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="34"/>
+      <c r="D46" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="2:6">
+      <c r="E46" s="17"/>
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="19"/>
-      <c r="C47" s="17"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-    </row>
-    <row r="48" spans="2:6">
+      <c r="E47" s="17"/>
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="21">
         <v>13</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="35"/>
+      <c r="D48" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="23"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
